--- a/portal_phpcsv/uploads/saida.xlsx
+++ b/portal_phpcsv/uploads/saida.xlsx
@@ -19694,7 +19694,7 @@
     <t>Data Arquivo Ori</t>
   </si>
   <si>
-    <t>2024-11-28 09:45:12</t>
+    <t>2024-09-03 19:13:58</t>
   </si>
 </sst>
 </file>

--- a/portal_phpcsv/uploads/saida.xlsx
+++ b/portal_phpcsv/uploads/saida.xlsx
@@ -19694,7 +19694,7 @@
     <t>Data Arquivo Ori</t>
   </si>
   <si>
-    <t>2024-09-03 19:13:58</t>
+    <t>2024-11-27 16:34:42</t>
   </si>
 </sst>
 </file>

--- a/portal_phpcsv/uploads/saida.xlsx
+++ b/portal_phpcsv/uploads/saida.xlsx
@@ -19694,7 +19694,7 @@
     <t>Data Arquivo Ori</t>
   </si>
   <si>
-    <t>2024-11-27 16:34:42</t>
+    <t>2024-09-03 16:13:58</t>
   </si>
 </sst>
 </file>
